--- a/biology/Zoologie/Ecdyonurus_insignis/Ecdyonurus_insignis.xlsx
+++ b/biology/Zoologie/Ecdyonurus_insignis/Ecdyonurus_insignis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Il semblerait que Ecdyonurus insignis (Eaton, 1870), une espèce d'insectes ailés, de l'ordre des éphéméroptères, soit, au regard de la classification actuelle, le même insecte que les anciens Ecdyonurus rhenanus et Heptagenia insignis.
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ecdyonurus insignis est très abondant en France, surtout dans les Pyrénées, le Massif Central, et les rivières de Franche-Comté.
 </t>
@@ -542,7 +556,9 @@
           <t>Caractéristiques physiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nymphe : de 8 à 11 mm pour le corps
 Imago :
@@ -578,7 +594,9 @@
           <t>Éclosion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De mi-juin à fin août.
  Portail de l’entomologie                     </t>
